--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47A7AF-3EC1-479E-97AF-E7D61B8A92A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4599E3-63E5-4AC1-BB5F-648FFA0DBAEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Base/House</t>
   </si>
@@ -46,6 +46,57 @@
   </si>
   <si>
     <t>SideTable</t>
+  </si>
+  <si>
+    <t>Bedside Table</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>Computer Cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montitor/Screens </t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>Computer Mouse</t>
+  </si>
+  <si>
+    <t>Coffee Mug</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>Garage_Cabinet</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Trolley_table</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Bullets</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Garage Computer</t>
   </si>
 </sst>
 </file>
@@ -61,12 +112,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,55 +435,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4599E3-63E5-4AC1-BB5F-648FFA0DBAEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC48012-58C7-4306-93A2-E6EAF1C31740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC48012-58C7-4306-93A2-E6EAF1C31740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08468C1-B765-4CDD-8B89-336A9D2B7AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,17 +480,17 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\Bounty-Punk\Game Document\Game Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08468C1-B765-4CDD-8B89-336A9D2B7AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650C273-8737-4AE3-B3FB-562A9FEBDEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Base/House</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Garage Computer</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Petrol Can</t>
+  </si>
+  <si>
+    <t>Oil Can</t>
   </si>
 </sst>
 </file>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,48 +537,68 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650C273-8737-4AE3-B3FB-562A9FEBDEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C41DD-0743-4B33-86A1-B20D22D5E6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1356" yWindow="660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,12 +582,12 @@
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Game Document/Game Documents/Bounty Punk Asset list.xlsx
+++ b/Game Document/Game Documents/Bounty Punk Asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\Bounty-Punk\Game Document\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C41DD-0743-4B33-86A1-B20D22D5E6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D1FD6-4F6A-4577-B4BA-B499F6FC82D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1356" yWindow="660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Base/House</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Oil Can</t>
+  </si>
+  <si>
+    <t>CardBoard box</t>
+  </si>
+  <si>
+    <t>CardBoard box open</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,39 +572,49 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>20</v>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="3" t="s">
-        <v>21</v>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
